--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/uniform_pro.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/uniform_pro.xlsx
@@ -33,7 +33,7 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0,104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
+    <t>12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22,20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33</t>
   </si>
   <si>
     <t>arg198417</t>
@@ -42,13 +42,13 @@
     <t>arg580102</t>
   </si>
   <si>
-    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13,58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97,5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
   </si>
   <si>
     <t>arg207727</t>
   </si>
   <si>
-    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13,540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0</t>
+    <t>33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97,14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82</t>
   </si>
   <si>
     <t>t c</t>
@@ -72,7 +72,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
+    <t>27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
   </si>
   <si>
     <t>arg205860</t>
@@ -81,7 +81,7 @@
     <t>arg251981</t>
   </si>
   <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13</t>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71</t>
   </si>
   <si>
     <t>arg198325</t>
@@ -90,13 +90,13 @@
     <t>arg299409</t>
   </si>
   <si>
-    <t>176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
+    <t>28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58,12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
   </si>
   <si>
     <t>arg198376</t>
   </si>
   <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0</t>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83</t>
   </si>
   <si>
     <t>arg236393</t>
@@ -105,34 +105,34 @@
     <t>arg203922</t>
   </si>
   <si>
-    <t>162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0</t>
+    <t>31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14,24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0</t>
   </si>
   <si>
     <t>arg205569</t>
   </si>
   <si>
-    <t>467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0,73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03,14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17</t>
   </si>
   <si>
     <t>arg208793</t>
   </si>
   <si>
-    <t>279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13</t>
+    <t>18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71</t>
   </si>
   <si>
     <t>arg561672</t>
   </si>
   <si>
-    <t>470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0,140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
+    <t>23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29,27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
+  </si>
+  <si>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
   </si>
   <si>
     <t>arg198890</t>
   </si>
   <si>
-    <t>348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0,415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13</t>
+    <t>9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3,33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97</t>
   </si>
   <si>
     <t>.</t>
@@ -141,7 +141,7 @@
     <t>arg199548</t>
   </si>
   <si>
-    <t>256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0</t>
+    <t>24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73,14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03</t>
   </si>
   <si>
     <t>arg198256</t>
@@ -150,10 +150,10 @@
     <t>arg251866</t>
   </si>
   <si>
-    <t>244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0,384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13,244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0</t>
+    <t>21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31,37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74</t>
+  </si>
+  <si>
+    <t>12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93,21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31</t>
   </si>
   <si>
     <t>se</t>
@@ -171,28 +171,28 @@
     <t>arg198802</t>
   </si>
   <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0,129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0,279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13,37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74</t>
+  </si>
+  <si>
+    <t>14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03,12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
+  </si>
+  <si>
+    <t>20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33,21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31</t>
+  </si>
+  <si>
+    <t>12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78,18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
   </si>
   <si>
     <t>arg234411</t>
   </si>
   <si>
-    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
+    <t>27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13,16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
   </si>
   <si>
     <t>arg252294</t>
   </si>
   <si>
-    <t>541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13,227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
+    <t>12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93,7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44</t>
   </si>
   <si>
     <t>nem</t>
@@ -201,61 +201,61 @@
     <t>y.</t>
   </si>
   <si>
-    <t>384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74,5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
   </si>
   <si>
     <t>arg208794</t>
   </si>
   <si>
-    <t>280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0,186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0,140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
+  </si>
+  <si>
+    <t>14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82,34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44</t>
+  </si>
+  <si>
+    <t>12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22,27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
   </si>
   <si>
     <t>arg212151</t>
   </si>
   <si>
-    <t>384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
-  </si>
-  <si>
-    <t>520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25,58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74,11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47</t>
+  </si>
+  <si>
+    <t>16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7,5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
   </si>
   <si>
     <t>arg234631</t>
   </si>
   <si>
-    <t>162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14,12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68</t>
+  </si>
+  <si>
+    <t>24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73,14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17</t>
   </si>
   <si>
     <t>arg200033</t>
   </si>
   <si>
-    <t>225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67,7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44</t>
+  </si>
+  <si>
+    <t>21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67,27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
   </si>
   <si>
     <t>arg200133</t>
   </si>
   <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
-  </si>
-  <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0</t>
-  </si>
-  <si>
-    <t>528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0,405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0</t>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25,11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83,24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0</t>
   </si>
   <si>
     <t>ips</t>
@@ -270,31 +270,31 @@
     <t>ver identical uniform also removes the wall of status. it also depicts that whether a child comes from high or low class they all are treated equally under one roof .</t>
   </si>
   <si>
-    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13,162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97,31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14</t>
   </si>
   <si>
     <t>arg198575</t>
   </si>
   <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13</t>
-  </si>
-  <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0,415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13</t>
-  </si>
-  <si>
-    <t>490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95</t>
+  </si>
+  <si>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13,5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
+  </si>
+  <si>
+    <t>12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78,33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97</t>
+  </si>
+  <si>
+    <t>12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68,7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44</t>
+  </si>
+  <si>
+    <t>18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
   </si>
   <si>
     <t>arg198711</t>
   </si>
   <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13,418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47,19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86</t>
   </si>
   <si>
     <t>o r</t>
@@ -312,46 +312,46 @@
     <t>arg236207</t>
   </si>
   <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0,58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0,415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13</t>
-  </si>
-  <si>
-    <t>348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0,129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13,129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13,520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
-  </si>
-  <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13,273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0,58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67</t>
+  </si>
+  <si>
+    <t>14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03,5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
+  </si>
+  <si>
+    <t>28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58,14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17</t>
+  </si>
+  <si>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25,24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44,33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97</t>
+  </si>
+  <si>
+    <t>9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3,12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
+  </si>
+  <si>
+    <t>19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86,14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67,12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
+  </si>
+  <si>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25,28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71,16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
+  </si>
+  <si>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71,18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67</t>
+  </si>
+  <si>
+    <t>9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3,5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
   </si>
   <si>
     <t>arg660921</t>
   </si>
   <si>
-    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13</t>
+    <t>53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05,18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67</t>
   </si>
   <si>
     <t>fi</t>
@@ -366,40 +366,40 @@
     <t>ut what you are going to wear and 3. less drama, everyones wearing the same thing.</t>
   </si>
   <si>
-    <t>253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0,176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0,129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13,186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
-  </si>
-  <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
-  </si>
-  <si>
-    <t>280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
+    <t>42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13,28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
+  </si>
+  <si>
+    <t>20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33,28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67,5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
+  </si>
+  <si>
+    <t>23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29,12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
+  </si>
+  <si>
+    <t>12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93,34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
+  </si>
+  <si>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25,23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29</t>
+  </si>
+  <si>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
+  </si>
+  <si>
+    <t>18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
   </si>
   <si>
     <t>bou</t>
@@ -414,31 +414,31 @@
     <t>lothes during my student days.</t>
   </si>
   <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0,418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44,19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86</t>
+  </si>
+  <si>
+    <t>27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
   </si>
   <si>
     <t>arg542561</t>
   </si>
   <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74</t>
+  </si>
+  <si>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74</t>
   </si>
   <si>
     <t>arg203291</t>
   </si>
   <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0,73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82,14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17</t>
+  </si>
+  <si>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
   </si>
   <si>
     <t>rm</t>
@@ -453,52 +453,52 @@
     <t>ential especially in developing countries .</t>
   </si>
   <si>
-    <t>467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0,186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0,58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0,280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13,104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13,129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13,104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13,520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
+    <t>14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03,34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
+  </si>
+  <si>
+    <t>18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33</t>
+  </si>
+  <si>
+    <t>12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68,12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
+  </si>
+  <si>
+    <t>18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71</t>
+  </si>
+  <si>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82,5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
+  </si>
+  <si>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14</t>
+  </si>
+  <si>
+    <t>24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0,18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47,20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33</t>
+  </si>
+  <si>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68</t>
+  </si>
+  <si>
+    <t>12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
+  </si>
+  <si>
+    <t>32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95,12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67,20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33</t>
+  </si>
+  <si>
+    <t>20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33,19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86</t>
+  </si>
+  <si>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25,12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68</t>
+  </si>
+  <si>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47,16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
   </si>
   <si>
     <t>als</t>
@@ -513,49 +513,49 @@
     <t>other students wear old cloths . &lt;br/&gt; So I beleive that uniform is essential especially in developing countries .</t>
   </si>
   <si>
-    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13,253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0,520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
-  </si>
-  <si>
-    <t>418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13,278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13,104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0,162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25,227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13</t>
-  </si>
-  <si>
-    <t>470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
+    <t>33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97,42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78,16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
+  </si>
+  <si>
+    <t>19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86,5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
+  </si>
+  <si>
+    <t>33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97,22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31</t>
+  </si>
+  <si>
+    <t>27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13,53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05</t>
+  </si>
+  <si>
+    <t>28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58,27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
+  </si>
+  <si>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29</t>
+  </si>
+  <si>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13,27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
+  </si>
+  <si>
+    <t>21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67,12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
+  </si>
+  <si>
+    <t>12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93,20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33</t>
+  </si>
+  <si>
+    <t>18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17</t>
+  </si>
+  <si>
+    <t>12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78,31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14</t>
+  </si>
+  <si>
+    <t>16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7,7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44</t>
+  </si>
+  <si>
+    <t>21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67,33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97</t>
+  </si>
+  <si>
+    <t>23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
   </si>
   <si>
     <t>in</t>
@@ -570,16 +570,16 @@
     <t>ial status groups. A uniform shows students equality.</t>
   </si>
   <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0,140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13,470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0</t>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05</t>
+  </si>
+  <si>
+    <t>27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13,18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31,27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
+  </si>
+  <si>
+    <t>12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93,23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29</t>
   </si>
   <si>
     <t>t m</t>
@@ -594,34 +594,34 @@
     <t>n some levels it matters and most people that go to schools that don't have uniforms take like about 1 hr just to find their pants or shirt I mean really?? When you have a uniform it takes less than 10 min just to take it out and put it on and</t>
   </si>
   <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13,470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25,104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13,124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0,553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0,384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0,520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71,23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29</t>
+  </si>
+  <si>
+    <t>19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86,31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14</t>
+  </si>
+  <si>
+    <t>16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7,20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33</t>
+  </si>
+  <si>
+    <t>33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97,11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71</t>
+  </si>
+  <si>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13,28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78,53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05</t>
+  </si>
+  <si>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25,21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31</t>
+  </si>
+  <si>
+    <t>7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44,37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74</t>
+  </si>
+  <si>
+    <t>27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13,19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86</t>
+  </si>
+  <si>
+    <t>24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0,16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
   </si>
   <si>
     <t>mon</t>
@@ -636,25 +636,25 @@
     <t>. &lt;br/&gt; Some insensitive children may also mock other students wear old cloths . &lt;br/&gt; So I beleive that uniform is essential especially in developing countries .</t>
   </si>
   <si>
-    <t>520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25,186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0,347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
-  </si>
-  <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13,129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
-  </si>
-  <si>
-    <t>244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0,347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
-  </si>
-  <si>
-    <t>225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
+    <t>16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7,34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44,11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47</t>
+  </si>
+  <si>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86</t>
+  </si>
+  <si>
+    <t>12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93,12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
+  </si>
+  <si>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
+  </si>
+  <si>
+    <t>21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31,11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47</t>
+  </si>
+  <si>
+    <t>21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
   </si>
   <si>
     <t>t d</t>
@@ -663,10 +663,10 @@
     <t>s.</t>
   </si>
   <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0,225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82,21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67</t>
   </si>
   <si>
     <t>as</t>
@@ -681,22 +681,22 @@
     <t>m.</t>
   </si>
   <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13,58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13,186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0,162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0,227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0,253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
-  </si>
-  <si>
-    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47,5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
+  </si>
+  <si>
+    <t>33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97,34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22,31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14</t>
+  </si>
+  <si>
+    <t>14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03,7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44</t>
+  </si>
+  <si>
+    <t>24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0,42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
   </si>
   <si>
     <t>ing</t>
@@ -708,19 +708,19 @@
     <t>e. secondly, when all students wear one uniform, there wouldn't be any discrimination, dividing into social status groups. A uniform shows students equality.</t>
   </si>
   <si>
-    <t>129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0,278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0</t>
-  </si>
-  <si>
-    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13,273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0,58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0,415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13</t>
+    <t>12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78,22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31</t>
+  </si>
+  <si>
+    <t>20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33,11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97,18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67</t>
+  </si>
+  <si>
+    <t>42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13,5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
+  </si>
+  <si>
+    <t>11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83,33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97</t>
   </si>
   <si>
     <t>ri</t>
@@ -732,22 +732,22 @@
     <t>ns, bagging jeans, large trench coats, low cut shirts, and many others contribute to behavior problems and safety issues in the classrooms and in the hallways of schools today.</t>
   </si>
   <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0,418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13,273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25,162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82,19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86</t>
+  </si>
+  <si>
+    <t>12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68,20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33</t>
+  </si>
+  <si>
+    <t>18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
+  </si>
+  <si>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47,18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67</t>
+  </si>
+  <si>
+    <t>16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7,31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14</t>
+  </si>
+  <si>
+    <t>42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
   </si>
   <si>
     <t>clo</t>
@@ -762,19 +762,19 @@
     <t>uring my student days.</t>
   </si>
   <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0,347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
-  </si>
-  <si>
-    <t>405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0,186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17</t>
+  </si>
+  <si>
+    <t>24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73,37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74</t>
+  </si>
+  <si>
+    <t>24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0,11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47</t>
+  </si>
+  <si>
+    <t>24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0,34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
   </si>
   <si>
     <t>nse</t>
@@ -786,34 +786,34 @@
     <t>nship and sense of belonging. In my case, school uniform is convenient. I don't have to worry about my clothes during my student days.</t>
   </si>
   <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0,520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
-  </si>
-  <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0,415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13</t>
-  </si>
-  <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0,129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25,22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31</t>
+  </si>
+  <si>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82,16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
+  </si>
+  <si>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25,27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
+  </si>
+  <si>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
+  </si>
+  <si>
+    <t>20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33,14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17</t>
+  </si>
+  <si>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82,33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97</t>
+  </si>
+  <si>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25,14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82</t>
+  </si>
+  <si>
+    <t>11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83,12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
+  </si>
+  <si>
+    <t>12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68,27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
+  </si>
+  <si>
+    <t>53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
   </si>
   <si>
     <t>hink</t>
@@ -822,22 +822,22 @@
     <t>about what to wear!because it is very big problem for teenagers.</t>
   </si>
   <si>
-    <t>162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0,253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
-  </si>
-  <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0,520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
+    <t>31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14,14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03</t>
+  </si>
+  <si>
+    <t>37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74,20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33</t>
+  </si>
+  <si>
+    <t>23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29,42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
+  </si>
+  <si>
+    <t>28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58,18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31,16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
   </si>
   <si>
     <t>co</t>
@@ -852,7 +852,7 @@
     <t>s .</t>
   </si>
   <si>
-    <t>520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
+    <t>16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
   </si>
   <si>
     <t>big</t>
@@ -867,31 +867,31 @@
     <t>em for teenagers.</t>
   </si>
   <si>
-    <t>279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13</t>
-  </si>
-  <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13</t>
-  </si>
-  <si>
-    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13,104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0,124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13,490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
+  </si>
+  <si>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82</t>
+  </si>
+  <si>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13,11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71</t>
+  </si>
+  <si>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97</t>
+  </si>
+  <si>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25,32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95</t>
+  </si>
+  <si>
+    <t>53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05,11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71</t>
+  </si>
+  <si>
+    <t>33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97,20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33</t>
+  </si>
+  <si>
+    <t>14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03,11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71</t>
+  </si>
+  <si>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47,12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68</t>
   </si>
   <si>
     <t>the</t>
@@ -906,7 +906,7 @@
     <t>as hot pants, rebel jeans or sexy clothes. that's not good for their mind.</t>
   </si>
   <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13,467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0</t>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47,14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03</t>
   </si>
   <si>
     <t>b</t>
@@ -918,22 +918,22 @@
     <t>that's why school uniform liquidates all conflicts.</t>
   </si>
   <si>
-    <t>348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13,227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0,244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0,176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0,540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0</t>
+    <t>32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95,7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44</t>
+  </si>
+  <si>
+    <t>23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29,21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31</t>
+  </si>
+  <si>
+    <t>24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73,23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29</t>
+  </si>
+  <si>
+    <t>28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58,19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86</t>
+  </si>
+  <si>
+    <t>23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29,28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44,14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82</t>
   </si>
   <si>
     <t>nig</t>
@@ -948,7 +948,7 @@
     <t>b.</t>
   </si>
   <si>
-    <t>520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25,280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
+    <t>16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7,18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
   </si>
   <si>
     <t>spe</t>
@@ -960,16 +960,16 @@
     <t>much of time to choose clothes to school</t>
   </si>
   <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0,73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0,467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0</t>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78,14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17</t>
+  </si>
+  <si>
+    <t>24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73,12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68</t>
+  </si>
+  <si>
+    <t>9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3,14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03</t>
   </si>
   <si>
     <t>. t</t>
@@ -984,16 +984,16 @@
     <t>why school uniform liquidates all conflicts.</t>
   </si>
   <si>
-    <t>256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0</t>
-  </si>
-  <si>
-    <t>280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0</t>
+    <t>24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73,24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
+  </si>
+  <si>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13,19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86</t>
+  </si>
+  <si>
+    <t>12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68,14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82</t>
   </si>
   <si>
     <t>ace</t>
@@ -1005,10 +1005,10 @@
     <t>kids go? What is stopping them from going home and putting on different clothes after school? And it isn't the schools job to make sure that every kid gets to "express their opinion." School is meant to be a learning environment, not a fashion show or a night club.</t>
   </si>
   <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13,225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0,520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71,21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67</t>
+  </si>
+  <si>
+    <t>42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13,16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
   </si>
   <si>
     <t>vel</t>
@@ -1020,76 +1020,76 @@
     <t>countries .</t>
   </si>
   <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13,278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0,470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0,227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0,176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13,253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
-  </si>
-  <si>
-    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0,360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0,347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
-  </si>
-  <si>
-    <t>227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0,280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13,129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0,129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0,73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0,528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0</t>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25,12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22</t>
+  </si>
+  <si>
+    <t>20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33,11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71</t>
+  </si>
+  <si>
+    <t>18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14</t>
+  </si>
+  <si>
+    <t>53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05,5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
+  </si>
+  <si>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71,22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31</t>
+  </si>
+  <si>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25,11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71</t>
+  </si>
+  <si>
+    <t>7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44,23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29</t>
+  </si>
+  <si>
+    <t>24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0,7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44</t>
+  </si>
+  <si>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13,12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68</t>
+  </si>
+  <si>
+    <t>37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74,11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71</t>
+  </si>
+  <si>
+    <t>7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44,28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67,42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
+  </si>
+  <si>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13,7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44</t>
+  </si>
+  <si>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33</t>
+  </si>
+  <si>
+    <t>42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13,12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22</t>
+  </si>
+  <si>
+    <t>9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3,11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47</t>
+  </si>
+  <si>
+    <t>7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44,18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33,23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29</t>
+  </si>
+  <si>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71,12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
+  </si>
+  <si>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82,12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
+  </si>
+  <si>
+    <t>21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31,14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17</t>
+  </si>
+  <si>
+    <t>27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13,8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82</t>
+  </si>
+  <si>
+    <t>42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13,11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83</t>
   </si>
   <si>
     <t>t a</t>
@@ -1104,28 +1104,28 @@
     <t>things!!</t>
   </si>
   <si>
-    <t>273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13,227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0,129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0,347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
-  </si>
-  <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0,415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13</t>
+    <t>18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67,7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44</t>
+  </si>
+  <si>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13,18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67</t>
+  </si>
+  <si>
+    <t>12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22,12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
+  </si>
+  <si>
+    <t>27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13,18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22,11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47</t>
+  </si>
+  <si>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25,31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14</t>
+  </si>
+  <si>
+    <t>20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33,53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05</t>
+  </si>
+  <si>
+    <t>14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03,33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97</t>
   </si>
   <si>
     <t>and</t>
@@ -1137,10 +1137,10 @@
     <t>others contribute to behavior problems and safety issues in the classrooms and in the hallways of schools today.</t>
   </si>
   <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13,8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82</t>
+  </si>
+  <si>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
   </si>
   <si>
     <t>I</t>
@@ -1155,31 +1155,31 @@
     <t>have to worry about my clothes during my student days.</t>
   </si>
   <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0,104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13,73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0,405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0</t>
-  </si>
-  <si>
-    <t>273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13,176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0,244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
-  </si>
-  <si>
-    <t>540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03</t>
+  </si>
+  <si>
+    <t>24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0,20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33</t>
+  </si>
+  <si>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47,14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17</t>
+  </si>
+  <si>
+    <t>12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78,24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67,28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22,21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31</t>
+  </si>
+  <si>
+    <t>37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74,28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67,16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
+  </si>
+  <si>
+    <t>14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
   </si>
   <si>
     <t>d q</t>
@@ -1194,13 +1194,13 @@
     <t>y of clothes. Teenager is sensible so the poor students can feel inferior. Although school uniform is very expensive , it is cheap better than plain clothes. Also they feel sense of kinship and sense of belonging. In my case, school uniform is convenient. I don't have to worry about my clothes during my student days.</t>
   </si>
   <si>
-    <t>520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25,279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0,528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0</t>
+    <t>16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7,18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
+  </si>
+  <si>
+    <t>12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22,11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83</t>
   </si>
   <si>
     <t>meb</t>
@@ -1215,7 +1215,7 @@
     <t>ve really nice skirt or jeans. Every pupil is the same and it would be easy to study, to not think about another things!!</t>
   </si>
   <si>
-    <t>490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
+    <t>12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
   </si>
   <si>
     <t>nat</t>
@@ -1230,10 +1230,10 @@
     <t>ividing into social status groups. A uniform shows students equality.</t>
   </si>
   <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13,360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71,12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22</t>
+  </si>
+  <si>
+    <t>18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
   </si>
   <si>
     <t>ve</t>
@@ -1242,16 +1242,16 @@
     <t>worry about my clothes during my student days.</t>
   </si>
   <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0,490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13,124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0,553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82,12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68</t>
+  </si>
+  <si>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25,20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33</t>
+  </si>
+  <si>
+    <t>32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95,11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71</t>
+  </si>
+  <si>
+    <t>21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31,53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05</t>
   </si>
   <si>
     <t>for</t>
@@ -1263,7 +1263,7 @@
     <t>eople will know that we from that school &lt;br/&gt; thankyou</t>
   </si>
   <si>
-    <t>280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05</t>
   </si>
   <si>
     <t>wi</t>
@@ -1278,13 +1278,13 @@
     <t>we used the school uniform so people will know that we from that school &lt;br/&gt; thankyou</t>
   </si>
   <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13,176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13,415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13</t>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71,28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73,5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
+  </si>
+  <si>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47,33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97</t>
   </si>
   <si>
     <t>ls</t>
@@ -1293,19 +1293,19 @@
     <t>day.</t>
   </si>
   <si>
-    <t>225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0,186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0,244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13,244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0,553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67,12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22</t>
+  </si>
+  <si>
+    <t>23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29,34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78,21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31</t>
+  </si>
+  <si>
+    <t>33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97,21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31</t>
+  </si>
+  <si>
+    <t>23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29,53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05</t>
   </si>
   <si>
     <t>g w</t>
@@ -1320,16 +1320,16 @@
     <t>ld use our uniform and if were not use our uniform the teacher give us a punishment and from that we can learn to be a discipline student &lt;br/&gt; 5.if we go out from the school than the teacher will see we used the school uniform so people will know that we from that school &lt;br/&gt; thankyou</t>
   </si>
   <si>
-    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05,34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13</t>
   </si>
   <si>
     <t>y..</t>
   </si>
   <si>
-    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0,467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0</t>
+    <t>27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13,14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03</t>
+  </si>
+  <si>
+    <t>24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0,14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03</t>
   </si>
   <si>
     <t>wee</t>
@@ -1341,22 +1341,22 @@
     <t>girls, although it is not rare between the boys. that's why school uniform liquidates all conflicts.</t>
   </si>
   <si>
-    <t>225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13,418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0,132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13,348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13</t>
-  </si>
-  <si>
-    <t>253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0,140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0</t>
+    <t>21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67,20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33</t>
+  </si>
+  <si>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71,19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86</t>
+  </si>
+  <si>
+    <t>7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44,8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82</t>
+  </si>
+  <si>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47,32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95</t>
+  </si>
+  <si>
+    <t>42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13,27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
+  </si>
+  <si>
+    <t>53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05,11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83</t>
   </si>
   <si>
     <t>e,</t>
@@ -1371,7 +1371,7 @@
     <t>happened not rare. I know that not everyone thought as me, but it much better if the school has own uniform and everybody has to follow it. First it looks very good, smart. Secondly there is no envy that somebody have really nice skirt or jeans. Every pupil is the same and it would be easy to study, to not think about another things!!</t>
   </si>
   <si>
-    <t>541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
+    <t>12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
   </si>
   <si>
     <t>wea</t>
@@ -1386,19 +1386,19 @@
     <t>uniform, there wouldn't be any discrimination, dividing into social status groups. A uniform shows students equality.</t>
   </si>
   <si>
-    <t>129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0,384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0,467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0,225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13,520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
+    <t>12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78,37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74</t>
+  </si>
+  <si>
+    <t>42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13,14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03</t>
+  </si>
+  <si>
+    <t>18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
+  </si>
+  <si>
+    <t>21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31,21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67</t>
+  </si>
+  <si>
+    <t>32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95,16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
   </si>
   <si>
     <t>k o</t>
@@ -1410,10 +1410,10 @@
     <t>tudents wear old cloths . &lt;br/&gt; So I beleive that uniform is essential especially in developing countries .</t>
   </si>
   <si>
-    <t>360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0,348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13</t>
-  </si>
-  <si>
-    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
+    <t>12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22,32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95</t>
+  </si>
+  <si>
+    <t>53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05,21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67</t>
   </si>
   <si>
     <t>de</t>
@@ -1425,34 +1425,34 @@
     <t>d it helps them to work as a team.</t>
   </si>
   <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13,140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13</t>
-  </si>
-  <si>
-    <t>104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0,244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13,528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0</t>
-  </si>
-  <si>
-    <t>279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0,540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0</t>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71,27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
+  </si>
+  <si>
+    <t>27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13,33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97</t>
+  </si>
+  <si>
+    <t>20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33,18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
+  </si>
+  <si>
+    <t>7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44,21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31</t>
+  </si>
+  <si>
+    <t>12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68,11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71</t>
+  </si>
+  <si>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71,11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31</t>
+  </si>
+  <si>
+    <t>31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14,21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67</t>
+  </si>
+  <si>
+    <t>21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31,14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82</t>
   </si>
   <si>
     <t>shi</t>
@@ -1467,22 +1467,22 @@
     <t>w or a night club.</t>
   </si>
   <si>
-    <t>253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0,384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
-  </si>
-  <si>
-    <t>273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13,58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13,132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13,520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
+    <t>42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13,37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74</t>
+  </si>
+  <si>
+    <t>18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74</t>
+  </si>
+  <si>
+    <t>21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67,11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67,5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
+  </si>
+  <si>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47,8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67,16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
   </si>
   <si>
     <t>sen</t>
@@ -1497,10 +1497,10 @@
     <t>specially in developing countries .</t>
   </si>
   <si>
-    <t>176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
-  </si>
-  <si>
-    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
+    <t>28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58,11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47</t>
+  </si>
+  <si>
+    <t>53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05,11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47</t>
   </si>
   <si>
     <t>eir</t>
@@ -1512,10 +1512,10 @@
     <t>tion for 5 minutes in class. &lt;br/&gt; Maybe I'm exaggerating. &lt;br/&gt; But my message is clear. Uniforms are here to prevent problems that not wearing uniforms would cause.</t>
   </si>
   <si>
-    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
-  </si>
-  <si>
-    <t>528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0,540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0</t>
+    <t>27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13,11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47</t>
+  </si>
+  <si>
+    <t>11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83,14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82</t>
   </si>
   <si>
     <t>'s</t>
@@ -1527,19 +1527,19 @@
     <t>of bull. Is school the only place these kids go? What is stopping them from going home and putting on different clothes after school? And it isn't the schools job to make sure that every kid gets to "express their opinion." School is meant to be a learning environment, not a fashion show or a night club.</t>
   </si>
   <si>
-    <t>360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0,273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0,280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
+    <t>12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22,18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67</t>
+  </si>
+  <si>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
+  </si>
+  <si>
+    <t>21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
+  </si>
+  <si>
+    <t>28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58,14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82</t>
+  </si>
+  <si>
+    <t>14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82,18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
   </si>
   <si>
     <t>e d</t>
@@ -1551,10 +1551,10 @@
     <t>ave to spend to much of time to choose clothes to school</t>
   </si>
   <si>
-    <t>273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
-  </si>
-  <si>
-    <t>540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
+    <t>18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
+  </si>
+  <si>
+    <t>14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
   </si>
   <si>
     <t>aus</t>
@@ -1566,22 +1566,22 @@
     <t>s very big problem for teenagers.</t>
   </si>
   <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13,540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13,253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
-  </si>
-  <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0,520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71,14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82</t>
+  </si>
+  <si>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47,42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25,12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
+  </si>
+  <si>
+    <t>27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13,14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17</t>
+  </si>
+  <si>
+    <t>28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
+  </si>
+  <si>
+    <t>23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29,16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
   </si>
   <si>
     <t>yda</t>
@@ -1596,28 +1596,28 @@
     <t>h the other students cannot afford and may lead to resentment among them . &lt;br/&gt; Some insensitive children may also mock other students wear old cloths . &lt;br/&gt; So I beleive that uniform is essential especially in developing countries .</t>
   </si>
   <si>
-    <t>244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
-  </si>
-  <si>
-    <t>348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13,104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0,124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13,253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13</t>
+    <t>21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
+  </si>
+  <si>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13,21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67</t>
+  </si>
+  <si>
+    <t>19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86,42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95,20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33</t>
+  </si>
+  <si>
+    <t>9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3,11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71</t>
+  </si>
+  <si>
+    <t>32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95,42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33,7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44</t>
+  </si>
+  <si>
+    <t>53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05,32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95</t>
   </si>
   <si>
     <t>att</t>
@@ -1632,31 +1632,31 @@
     <t>on school work since they dont have to think if they are wearing the most expensive cloth is school or if they look the coolest and the prettiest and so..:D</t>
   </si>
   <si>
-    <t>104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
-  </si>
-  <si>
-    <t>360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0,227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0,528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0</t>
-  </si>
-  <si>
-    <t>176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
-  </si>
-  <si>
-    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0</t>
-  </si>
-  <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0,280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0,244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0</t>
+    <t>20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33,42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22,7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44</t>
+  </si>
+  <si>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29</t>
+  </si>
+  <si>
+    <t>21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67,11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
+  </si>
+  <si>
+    <t>27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13,24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13,22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31</t>
+  </si>
+  <si>
+    <t>23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29,18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83,21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31</t>
   </si>
   <si>
     <t>to s</t>
@@ -1665,7 +1665,7 @@
     <t>tudy.</t>
   </si>
   <si>
-    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
+    <t>53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05,18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
   </si>
   <si>
     <t>ina</t>
@@ -1677,7 +1677,7 @@
     <t>'s convenient because we don't have to spend to much of time to choose clothes to school</t>
   </si>
   <si>
-    <t>280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0</t>
+    <t>18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83</t>
   </si>
   <si>
     <t>stu</t>
@@ -1692,10 +1692,10 @@
     <t>not think about another things!!</t>
   </si>
   <si>
-    <t>467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0,279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
+    <t>14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03,18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86,16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
   </si>
   <si>
     <t>esen</t>
@@ -1704,10 +1704,10 @@
     <t>tment among them . &lt;br/&gt; Some insensitive children may also mock other students wear old cloths . &lt;br/&gt; So I beleive that uniform is essential especially in developing countries .</t>
   </si>
   <si>
-    <t>348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
+    <t>9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
+  </si>
+  <si>
+    <t>33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
   </si>
   <si>
     <t>eap</t>
@@ -1719,16 +1719,16 @@
     <t>r than plain clothes. Also they feel sense of kinship and sense of belonging. In my case, school uniform is convenient. I don't have to worry about my clothes during my student days.</t>
   </si>
   <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0,467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0,162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0,418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17,12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22</t>
+  </si>
+  <si>
+    <t>21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31,14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03</t>
+  </si>
+  <si>
+    <t>14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82,31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14</t>
+  </si>
+  <si>
+    <t>23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29,19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86</t>
   </si>
   <si>
     <t>e b</t>
@@ -1740,7 +1740,7 @@
     <t>putting on the same set of clothes but it's less costly this way, and you do not have to go on shopping trips so regularly.</t>
   </si>
   <si>
-    <t>405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0,490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0,12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68</t>
   </si>
   <si>
     <t>heir</t>
@@ -1749,10 +1749,10 @@
     <t>self, they could wear Inappropriate clothes such as hot pants, rebel jeans or sexy clothes. that's not good for their mind.</t>
   </si>
   <si>
-    <t>384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13,470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0</t>
+    <t>37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74,27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
+  </si>
+  <si>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47,23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29</t>
   </si>
   <si>
     <t>it t</t>
@@ -1761,10 +1761,10 @@
     <t>akes less than 10 min just to take it out and put it on and</t>
   </si>
   <si>
-    <t>256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
+    <t>24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73,22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31</t>
+  </si>
+  <si>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
   </si>
   <si>
     <t>ins</t>
@@ -1779,37 +1779,37 @@
     <t>d sense of belonging. In my case, school uniform is convenient. I don't have to worry about my clothes during my student days.</t>
   </si>
   <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
-  </si>
-  <si>
-    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13,348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13</t>
-  </si>
-  <si>
-    <t>256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
-  </si>
-  <si>
-    <t>540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0,104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0</t>
-  </si>
-  <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0,470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13,347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
-  </si>
-  <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13,470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0</t>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
+  </si>
+  <si>
+    <t>18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
+  </si>
+  <si>
+    <t>33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97,32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95</t>
+  </si>
+  <si>
+    <t>24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73,27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
+  </si>
+  <si>
+    <t>31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14,11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47</t>
+  </si>
+  <si>
+    <t>14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82,20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33</t>
+  </si>
+  <si>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82,23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29</t>
+  </si>
+  <si>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71,11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47</t>
+  </si>
+  <si>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44</t>
+  </si>
+  <si>
+    <t>32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95,23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29</t>
   </si>
   <si>
     <t>tak</t>
@@ -1824,13 +1824,13 @@
     <t>s than 10 min just to take it out and put it on and</t>
   </si>
   <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13,12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
+  </si>
+  <si>
+    <t>24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73,7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44</t>
+  </si>
+  <si>
+    <t>53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05,12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68</t>
   </si>
   <si>
     <t>an'</t>
@@ -1842,13 +1842,13 @@
     <t>ess them self, oh please, there's so many things you can do to express yourself. and i think, uniform indirectly give thought how to dress correctly. if we let them dress theirself, they could wear Inappropriate clothes such as hot pants, rebel jeans or sexy clothes. that's not good for their mind.</t>
   </si>
   <si>
-    <t>162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0,553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14,18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67</t>
+  </si>
+  <si>
+    <t>53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05,8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82</t>
+  </si>
+  <si>
+    <t>42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13,53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05</t>
   </si>
   <si>
     <t>hoo</t>
@@ -1863,7 +1863,7 @@
     <t>orm so people will know that we from that school &lt;br/&gt; thankyou</t>
   </si>
   <si>
-    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13,553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97,53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05</t>
   </si>
   <si>
     <t>ch</t>
@@ -1875,19 +1875,19 @@
     <t>ive us a punishment and from that we can learn to be a discipline student &lt;br/&gt; 5.if we go out from the school than the teacher will see we used the school uniform so people will know that we from that school &lt;br/&gt; thankyou</t>
   </si>
   <si>
-    <t>348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0,280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0,176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0,273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13</t>
-  </si>
-  <si>
-    <t>348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
+    <t>9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3,18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82,28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0,18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67</t>
+  </si>
+  <si>
+    <t>32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
+  </si>
+  <si>
+    <t>19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
   </si>
   <si>
     <t>che</t>
@@ -1896,7 +1896,7 @@
     <t>ap better than plain clothes. Also they feel sense of kinship and sense of belonging. In my case, school uniform is convenient. I don't have to worry about my clothes during my student days.</t>
   </si>
   <si>
-    <t>470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0,384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
+    <t>23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29,37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74</t>
   </si>
   <si>
     <t>so</t>
@@ -1908,10 +1908,10 @@
     <t>ms would make social life much easier and it would give a more mature look to the school.</t>
   </si>
   <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0</t>
-  </si>
-  <si>
-    <t>348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13,540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0</t>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13,11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95,14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82</t>
   </si>
   <si>
     <t>e t</t>
@@ -1923,13 +1923,13 @@
     <t>ery kid gets to "express their opinion." School is meant to be a learning environment, not a fashion show or a night club.</t>
   </si>
   <si>
-    <t>348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13,418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
+    <t>32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95,19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86</t>
   </si>
   <si>
     <t>rly</t>
   </si>
   <si>
-    <t>540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0,273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13</t>
+    <t>14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82,18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67</t>
   </si>
   <si>
     <t>o w</t>
@@ -1944,7 +1944,7 @@
     <t>d 3. less drama, everyones wearing the same thing.</t>
   </si>
   <si>
-    <t>540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0,418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
+    <t>14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82,19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86</t>
   </si>
   <si>
     <t>y i</t>
@@ -1959,7 +1959,7 @@
     <t>nt thing which help to you in lessons. Yes, it might be a little boring putting on the same set of clothes but it's less costly this way, and you do not have to go on shopping trips so regularly.</t>
   </si>
   <si>
-    <t>541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13,405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0</t>
+    <t>12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93,24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0</t>
   </si>
   <si>
     <t>lat</t>
@@ -1971,13 +1971,13 @@
     <t>ps moreover identical uniform also removes the wall of status. it also depicts that whether a child comes from high or low class they all are treated equally under one roof .</t>
   </si>
   <si>
-    <t>384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13,280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13</t>
+    <t>37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
+  </si>
+  <si>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47,18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86,33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97</t>
   </si>
   <si>
     <t>afet</t>
@@ -1986,19 +1986,19 @@
     <t>y issues in the classrooms and in the hallways of schools today.</t>
   </si>
   <si>
-    <t>253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0,186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0,418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0,225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0,467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0</t>
+    <t>42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13,34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78,19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86</t>
+  </si>
+  <si>
+    <t>9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3,21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67</t>
+  </si>
+  <si>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82,14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03</t>
+  </si>
+  <si>
+    <t>37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74,14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82</t>
   </si>
   <si>
     <t>And</t>
@@ -2013,22 +2013,22 @@
     <t>n't the schools job to make sure that every kid gets to "express their opinion." School is meant to be a learning environment, not a fashion show or a night club.</t>
   </si>
   <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13,405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0</t>
-  </si>
-  <si>
-    <t>162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13,280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0,225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0</t>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71,24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0</t>
+  </si>
+  <si>
+    <t>31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14,8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82</t>
+  </si>
+  <si>
+    <t>18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95,18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13,21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67</t>
+  </si>
+  <si>
+    <t>19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86,14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03</t>
   </si>
   <si>
     <t>oft</t>
@@ -2040,7 +2040,7 @@
     <t>urs between the girls, although it is not rare between the boys. that's why school uniform liquidates all conflicts.</t>
   </si>
   <si>
-    <t>227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0,553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44,53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05</t>
   </si>
   <si>
     <t>ill</t>
@@ -2055,16 +2055,16 @@
     <t>that we from that school &lt;br/&gt; thankyou</t>
   </si>
   <si>
-    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13,279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
-  </si>
-  <si>
-    <t>273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13,278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0,360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0</t>
+    <t>33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97,18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68,42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67,22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31</t>
+  </si>
+  <si>
+    <t>14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82,12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22</t>
   </si>
   <si>
     <t>aki</t>
@@ -2079,10 +2079,10 @@
     <t>ers feel bad for not having 'cool' stuff. &lt;br/&gt; But it can be taken too far. By the end, we weren't allowed coloured socks, which was idiotic.</t>
   </si>
   <si>
-    <t>162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0,520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
+    <t>31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14,27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
+  </si>
+  <si>
+    <t>14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82,16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
   </si>
   <si>
     <t>er</t>
@@ -2094,7 +2094,7 @@
     <t>no uniform , then the rich students will wear new dresses everyday which the other students cannot afford and may lead to resentment among them . &lt;br/&gt; Some insensitive children may also mock other students wear old cloths . &lt;br/&gt; So I beleive that uniform is essential especially in developing countries .</t>
   </si>
   <si>
-    <t>528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0,384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
+    <t>11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83,37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74</t>
   </si>
   <si>
     <t>ey c</t>
@@ -2103,13 +2103,13 @@
     <t>ant afford to live up to their peers standards so uniforms would make social life much easier and it would give a more mature look to the school.</t>
   </si>
   <si>
-    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0,384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0</t>
+    <t>27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13,14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82</t>
+  </si>
+  <si>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82,37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74</t>
+  </si>
+  <si>
+    <t>53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05,24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0</t>
   </si>
   <si>
     <t>tio</t>
@@ -2121,10 +2121,10 @@
     <t>eace and blue of fidelity in relationships moreover identical uniform also removes the wall of status. it also depicts that whether a child comes from high or low class they all are treated equally under one roof .</t>
   </si>
   <si>
-    <t>470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0,162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0</t>
+    <t>23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29,31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14</t>
+  </si>
+  <si>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83</t>
   </si>
   <si>
     <t>eas</t>
@@ -2133,10 +2133,10 @@
     <t>tudy, to not think about another things!!</t>
   </si>
   <si>
-    <t>279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0,347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
+    <t>18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31</t>
+  </si>
+  <si>
+    <t>11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83,11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47</t>
   </si>
   <si>
     <t>e I</t>
@@ -2151,10 +2151,10 @@
     <t>ggerating. &lt;br/&gt; But my message is clear. Uniforms are here to prevent problems that not wearing uniforms would cause.</t>
   </si>
   <si>
-    <t>162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0,540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0</t>
+    <t>31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14,7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44</t>
+  </si>
+  <si>
+    <t>14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03,14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82</t>
   </si>
   <si>
     <t>st</t>
@@ -2166,28 +2166,28 @@
     <t>ng them from going home and putting on different clothes after school? And it isn't the schools job to make sure that every kid gets to "express their opinion." School is meant to be a learning environment, not a fashion show or a night club.</t>
   </si>
   <si>
-    <t>176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0,280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0,347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
-  </si>
-  <si>
-    <t>104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13,140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0,253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
-  </si>
-  <si>
-    <t>418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0</t>
+    <t>28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58,22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
+  </si>
+  <si>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82,18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78,11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47</t>
+  </si>
+  <si>
+    <t>20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33,14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67,27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
+  </si>
+  <si>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82,42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86,12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22</t>
   </si>
   <si>
     <t>cks</t>
@@ -2199,40 +2199,40 @@
     <t>h was idiotic.</t>
   </si>
   <si>
-    <t>227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0,253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
-  </si>
-  <si>
-    <t>490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0,279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13,186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0,348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13</t>
-  </si>
-  <si>
-    <t>348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13,162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
+    <t>7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
+  </si>
+  <si>
+    <t>9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3,42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68,28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58</t>
+  </si>
+  <si>
+    <t>18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14</t>
+  </si>
+  <si>
+    <t>20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
+  </si>
+  <si>
+    <t>14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82,18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47,34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
+  </si>
+  <si>
+    <t>24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0,32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95</t>
+  </si>
+  <si>
+    <t>32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95,31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14</t>
+  </si>
+  <si>
+    <t>18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74</t>
+  </si>
+  <si>
+    <t>37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74,12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
   </si>
   <si>
     <t>. Al</t>
@@ -2241,19 +2241,19 @@
     <t>so they feel sense of kinship and sense of belonging. In my case, school uniform is convenient. I don't have to worry about my clothes during my student days.</t>
   </si>
   <si>
-    <t>176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0</t>
-  </si>
-  <si>
-    <t>176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0,348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
-  </si>
-  <si>
-    <t>360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0,278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58,14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03</t>
+  </si>
+  <si>
+    <t>28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
+  </si>
+  <si>
+    <t>12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22,9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
+  </si>
+  <si>
+    <t>12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22,22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31</t>
+  </si>
+  <si>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05</t>
   </si>
   <si>
     <t>te</t>
@@ -2268,49 +2268,49 @@
     <t>will see we used the school uniform so people will know that we from that school &lt;br/&gt; thankyou</t>
   </si>
   <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
-  </si>
-  <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0,348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13</t>
-  </si>
-  <si>
-    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13</t>
-  </si>
-  <si>
-    <t>162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0</t>
-  </si>
-  <si>
-    <t>279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47</t>
+  </si>
+  <si>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
+  </si>
+  <si>
+    <t>21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31,32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95</t>
+  </si>
+  <si>
+    <t>27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13,32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95</t>
+  </si>
+  <si>
+    <t>31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14,11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0,23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29</t>
+  </si>
+  <si>
+    <t>53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05,37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74</t>
   </si>
   <si>
     <t>for some children thats not the case and they cant afford to live up to their peers standards so uniforms would make social life much easier and it would give a more mature look to the school.</t>
   </si>
   <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0,540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0,132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0</t>
-  </si>
-  <si>
-    <t>162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
-  </si>
-  <si>
-    <t>253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0,256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0,140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0,253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
-  </si>
-  <si>
-    <t>418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0,490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82,14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82</t>
+  </si>
+  <si>
+    <t>11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83,8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82</t>
+  </si>
+  <si>
+    <t>31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14,42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13,24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
+  </si>
+  <si>
+    <t>11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83,27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
+  </si>
+  <si>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31,42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13</t>
+  </si>
+  <si>
+    <t>19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86,12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68</t>
   </si>
   <si>
     <t>f w</t>
